--- a/系統分析/範本/yyyyMM-區域-事件監控統計表.xlsx
+++ b/系統分析/範本/yyyyMM-區域-事件監控統計表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13200" windowHeight="3940" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6370" windowHeight="3940" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="災害事件一覽表" sheetId="1" r:id="rId1"/>
@@ -523,27 +523,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -553,27 +574,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -585,12 +591,6 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -890,47 +890,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="9"/>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.4">
-      <c r="A3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1049,352 +1049,352 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="14" customWidth="1"/>
-    <col min="2" max="3" width="11.81640625" style="14" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="11"/>
+    <col min="1" max="1" width="58.90625" style="13" customWidth="1"/>
+    <col min="2" max="3" width="11.81640625" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>3</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="12">
-        <v>0</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="B5" s="11">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="12">
-        <v>0</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="B6" s="11">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="12">
-        <v>0</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="B7" s="11">
+        <v>0</v>
+      </c>
+      <c r="C7" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="12">
-        <v>0</v>
-      </c>
-      <c r="C8" s="12">
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="12">
-        <v>0</v>
-      </c>
-      <c r="C9" s="12">
+      <c r="B9" s="11">
+        <v>0</v>
+      </c>
+      <c r="C9" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="12">
-        <v>0</v>
-      </c>
-      <c r="C10" s="12">
+      <c r="B10" s="11">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="12">
-        <v>0</v>
-      </c>
-      <c r="C11" s="13">
+      <c r="B11" s="11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>2</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="12">
-        <v>0</v>
-      </c>
-      <c r="C13" s="13">
+      <c r="B13" s="11">
+        <v>0</v>
+      </c>
+      <c r="C13" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="12">
-        <v>0</v>
-      </c>
-      <c r="C14" s="13">
+      <c r="B14" s="11">
+        <v>0</v>
+      </c>
+      <c r="C14" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="12">
-        <v>0</v>
-      </c>
-      <c r="C15" s="13">
+      <c r="B15" s="11">
+        <v>0</v>
+      </c>
+      <c r="C15" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="12">
-        <v>0</v>
-      </c>
-      <c r="C16" s="13">
+      <c r="B16" s="11">
+        <v>0</v>
+      </c>
+      <c r="C16" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="12">
-        <v>0</v>
-      </c>
-      <c r="C17" s="13">
+      <c r="B17" s="11">
+        <v>0</v>
+      </c>
+      <c r="C17" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="12">
-        <v>0</v>
-      </c>
-      <c r="C18" s="13">
+      <c r="B18" s="11">
+        <v>0</v>
+      </c>
+      <c r="C18" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>4</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="12">
-        <v>0</v>
-      </c>
-      <c r="C20" s="13">
+      <c r="B20" s="11">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="12">
-        <v>0</v>
-      </c>
-      <c r="C21" s="13">
+      <c r="B21" s="11">
+        <v>0</v>
+      </c>
+      <c r="C21" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="12">
-        <v>0</v>
-      </c>
-      <c r="C22" s="13">
+      <c r="B22" s="11">
+        <v>0</v>
+      </c>
+      <c r="C22" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="12">
-        <v>0</v>
-      </c>
-      <c r="C23" s="13">
+      <c r="B23" s="11">
+        <v>0</v>
+      </c>
+      <c r="C23" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <v>1</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="12">
         <v>0.1</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="12">
-        <v>0</v>
-      </c>
-      <c r="C25" s="13">
+      <c r="B25" s="11">
+        <v>0</v>
+      </c>
+      <c r="C25" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="12">
-        <v>0</v>
-      </c>
-      <c r="C26" s="13">
+      <c r="B26" s="11">
+        <v>0</v>
+      </c>
+      <c r="C26" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="12">
-        <v>0</v>
-      </c>
-      <c r="C27" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="32" x14ac:dyDescent="0.4">
-      <c r="A28" s="10" t="s">
+      <c r="B27" s="11">
+        <v>0</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.4">
+      <c r="A28" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="12">
-        <v>0</v>
-      </c>
-      <c r="C28" s="13">
+      <c r="B28" s="11">
+        <v>0</v>
+      </c>
+      <c r="C28" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="12">
-        <v>0</v>
-      </c>
-      <c r="C29" s="13">
+      <c r="B29" s="11">
+        <v>0</v>
+      </c>
+      <c r="C29" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="12">
-        <v>0</v>
-      </c>
-      <c r="C30" s="13">
+      <c r="B30" s="11">
+        <v>0</v>
+      </c>
+      <c r="C30" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="12">
-        <v>0</v>
-      </c>
-      <c r="C31" s="13">
+      <c r="B31" s="11">
+        <v>0</v>
+      </c>
+      <c r="C31" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="11">
         <v>10</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1418,89 +1418,89 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="29.453125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="13.08984375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="35.1796875" style="11" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="11"/>
+    <col min="1" max="1" width="29.453125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="35.1796875" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="5">
         <v>4</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="16">
         <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="16">
         <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="5">
         <v>1</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="16">
         <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="17" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="16">
         <v>1</v>
       </c>
     </row>
@@ -1524,650 +1524,650 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="5.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.36328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.36328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.90625" style="11" customWidth="1"/>
-    <col min="26" max="26" width="36.08984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.36328125" style="11" customWidth="1"/>
-    <col min="31" max="16384" width="8.7265625" style="11"/>
+    <col min="1" max="1" width="13.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="5.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.90625" style="10" customWidth="1"/>
+    <col min="26" max="26" width="36.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.36328125" style="10" customWidth="1"/>
+    <col min="31" max="16384" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-    </row>
-    <row r="3" spans="1:30" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.4">
-      <c r="A3" s="18" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+    </row>
+    <row r="3" spans="1:30" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.4">
+      <c r="A3" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="S3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="T3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="18" t="s">
+      <c r="U3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="V3" s="18" t="s">
+      <c r="V3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="W3" s="18" t="s">
+      <c r="W3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="X3" s="18" t="s">
+      <c r="X3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="Y3" s="18" t="s">
+      <c r="Y3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="Z3" s="18" t="s">
+      <c r="Z3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AA3" s="18" t="s">
+      <c r="AA3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AB3" s="18" t="s">
+      <c r="AB3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AC3" s="18" t="s">
+      <c r="AC3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AD3" s="18" t="s">
+      <c r="AD3" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="16" x14ac:dyDescent="0.4">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="9">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0</v>
-      </c>
-      <c r="N4" s="9">
-        <v>0</v>
-      </c>
-      <c r="O4" s="9">
-        <v>0</v>
-      </c>
-      <c r="P4" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="9">
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0</v>
+      </c>
+      <c r="O4" s="8">
+        <v>0</v>
+      </c>
+      <c r="P4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="8">
         <v>4</v>
       </c>
-      <c r="R4" s="9">
-        <v>0</v>
-      </c>
-      <c r="S4" s="9">
-        <v>0</v>
-      </c>
-      <c r="T4" s="9">
-        <v>0</v>
-      </c>
-      <c r="U4" s="9">
-        <v>0</v>
-      </c>
-      <c r="V4" s="9">
-        <v>0</v>
-      </c>
-      <c r="W4" s="9">
-        <v>0</v>
-      </c>
-      <c r="X4" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="9">
+      <c r="R4" s="8">
+        <v>0</v>
+      </c>
+      <c r="S4" s="8">
+        <v>0</v>
+      </c>
+      <c r="T4" s="8">
+        <v>0</v>
+      </c>
+      <c r="U4" s="8">
+        <v>0</v>
+      </c>
+      <c r="V4" s="8">
+        <v>0</v>
+      </c>
+      <c r="W4" s="8">
+        <v>0</v>
+      </c>
+      <c r="X4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="16" x14ac:dyDescent="0.4">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <v>0</v>
-      </c>
-      <c r="L5" s="9">
-        <v>0</v>
-      </c>
-      <c r="M5" s="9">
-        <v>0</v>
-      </c>
-      <c r="N5" s="9">
-        <v>0</v>
-      </c>
-      <c r="O5" s="9">
-        <v>0</v>
-      </c>
-      <c r="P5" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>0</v>
-      </c>
-      <c r="R5" s="9">
-        <v>0</v>
-      </c>
-      <c r="S5" s="9">
-        <v>0</v>
-      </c>
-      <c r="T5" s="9">
-        <v>0</v>
-      </c>
-      <c r="U5" s="9">
-        <v>0</v>
-      </c>
-      <c r="V5" s="9">
-        <v>0</v>
-      </c>
-      <c r="W5" s="9">
-        <v>0</v>
-      </c>
-      <c r="X5" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="9">
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>0</v>
+      </c>
+      <c r="R5" s="8">
+        <v>0</v>
+      </c>
+      <c r="S5" s="8">
+        <v>0</v>
+      </c>
+      <c r="T5" s="8">
+        <v>0</v>
+      </c>
+      <c r="U5" s="8">
+        <v>0</v>
+      </c>
+      <c r="V5" s="8">
+        <v>0</v>
+      </c>
+      <c r="W5" s="8">
+        <v>0</v>
+      </c>
+      <c r="X5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="16" x14ac:dyDescent="0.4">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="9">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
         <v>2</v>
       </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0</v>
-      </c>
-      <c r="M6" s="9">
-        <v>0</v>
-      </c>
-      <c r="N6" s="9">
-        <v>0</v>
-      </c>
-      <c r="O6" s="9">
-        <v>0</v>
-      </c>
-      <c r="P6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>0</v>
-      </c>
-      <c r="R6" s="9">
-        <v>0</v>
-      </c>
-      <c r="S6" s="9">
-        <v>0</v>
-      </c>
-      <c r="T6" s="9">
-        <v>0</v>
-      </c>
-      <c r="U6" s="9">
-        <v>0</v>
-      </c>
-      <c r="V6" s="9">
-        <v>0</v>
-      </c>
-      <c r="W6" s="9">
-        <v>0</v>
-      </c>
-      <c r="X6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="9">
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0</v>
+      </c>
+      <c r="R6" s="8">
+        <v>0</v>
+      </c>
+      <c r="S6" s="8">
+        <v>0</v>
+      </c>
+      <c r="T6" s="8">
+        <v>0</v>
+      </c>
+      <c r="U6" s="8">
+        <v>0</v>
+      </c>
+      <c r="V6" s="8">
+        <v>0</v>
+      </c>
+      <c r="W6" s="8">
+        <v>0</v>
+      </c>
+      <c r="X6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="16" x14ac:dyDescent="0.4">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="9">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9">
-        <v>0</v>
-      </c>
-      <c r="M7" s="9">
-        <v>0</v>
-      </c>
-      <c r="N7" s="9">
-        <v>0</v>
-      </c>
-      <c r="O7" s="9">
-        <v>0</v>
-      </c>
-      <c r="P7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>0</v>
-      </c>
-      <c r="R7" s="9">
-        <v>0</v>
-      </c>
-      <c r="S7" s="9">
-        <v>0</v>
-      </c>
-      <c r="T7" s="9">
-        <v>0</v>
-      </c>
-      <c r="U7" s="9">
-        <v>0</v>
-      </c>
-      <c r="V7" s="9">
+      <c r="B7" s="8">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0</v>
+      </c>
+      <c r="R7" s="8">
+        <v>0</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0</v>
+      </c>
+      <c r="T7" s="8">
+        <v>0</v>
+      </c>
+      <c r="U7" s="8">
+        <v>0</v>
+      </c>
+      <c r="V7" s="8">
         <v>1</v>
       </c>
-      <c r="W7" s="9">
-        <v>0</v>
-      </c>
-      <c r="X7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="9">
+      <c r="W7" s="8">
+        <v>0</v>
+      </c>
+      <c r="X7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="16" x14ac:dyDescent="0.4">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>3</v>
       </c>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
         <v>2</v>
       </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0</v>
-      </c>
-      <c r="N8" s="9">
-        <v>0</v>
-      </c>
-      <c r="O8" s="9">
-        <v>0</v>
-      </c>
-      <c r="P8" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="9">
+      <c r="K8" s="8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="8">
         <v>4</v>
       </c>
-      <c r="R8" s="9">
-        <v>0</v>
-      </c>
-      <c r="S8" s="9">
-        <v>0</v>
-      </c>
-      <c r="T8" s="9">
-        <v>0</v>
-      </c>
-      <c r="U8" s="9">
-        <v>0</v>
-      </c>
-      <c r="V8" s="9">
+      <c r="R8" s="8">
+        <v>0</v>
+      </c>
+      <c r="S8" s="8">
+        <v>0</v>
+      </c>
+      <c r="T8" s="8">
+        <v>0</v>
+      </c>
+      <c r="U8" s="8">
+        <v>0</v>
+      </c>
+      <c r="V8" s="8">
         <v>1</v>
       </c>
-      <c r="W8" s="9">
-        <v>0</v>
-      </c>
-      <c r="X8" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="9">
+      <c r="W8" s="8">
+        <v>0</v>
+      </c>
+      <c r="X8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2385,12 +2385,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -2445,7 +2445,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -2455,56 +2455,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="19" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="19" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="19" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="19" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="19" t="s">
         <v>70</v>
       </c>
     </row>
